--- a/data/dados_prod_mandioca.xlsx
+++ b/data/dados_prod_mandioca.xlsx
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -110,15 +110,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -218,47 +209,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +528,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,143 +537,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="2" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17">
-        <v>28.1</v>
-      </c>
-      <c r="C3" s="17">
-        <v>27</v>
-      </c>
-      <c r="D3" s="17">
-        <v>25.8</v>
-      </c>
-      <c r="E3" s="17">
-        <v>26.9</v>
-      </c>
-      <c r="F3" s="17">
-        <v>22.3</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>38.9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="F3" s="8">
+        <v>29.3</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18">
-        <v>38.9</v>
-      </c>
-      <c r="C4" s="18">
-        <v>25.4</v>
-      </c>
-      <c r="D4" s="18">
-        <v>20.3</v>
-      </c>
-      <c r="E4" s="18">
-        <v>25.7</v>
-      </c>
-      <c r="F4" s="18">
-        <v>29.3</v>
-      </c>
-      <c r="G4" s="8"/>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>26.2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E4" s="8">
+        <v>28.3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>28.7</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18">
-        <v>20.9</v>
-      </c>
-      <c r="C5" s="18">
-        <v>26.2</v>
-      </c>
-      <c r="D5" s="18">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="E5" s="18">
-        <v>28.3</v>
-      </c>
-      <c r="F5" s="18">
-        <v>28.7</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>26.9</v>
+      </c>
+      <c r="F5" s="8">
+        <v>22.3</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="8">
         <v>38.700000000000003</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="8">
         <v>43.2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="8">
         <v>41.7</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="8">
         <v>39</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="8">
         <v>40.299999999999997</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="9">
         <v>47.8</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="9">
         <v>47.8</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="9">
         <v>44.7</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="9">
         <v>50.5</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="9">
         <v>56.4</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
